--- a/data_year/zb/国民经济核算/分行业增加值.xlsx
+++ b/data_year/zb/国民经济核算/分行业增加值.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,778 +488,482 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6161.8752328925</v>
+        <v>18783.6191374142</v>
       </c>
       <c r="C2" t="n">
-        <v>2146.259947337</v>
+        <v>7711.9882102303</v>
       </c>
       <c r="D2" t="n">
-        <v>14092.9134574712</v>
+        <v>68654.651348826</v>
       </c>
       <c r="E2" t="n">
-        <v>14943.6057773091</v>
+        <v>39618.9790222461</v>
       </c>
       <c r="F2" t="n">
-        <v>100280.139253433</v>
+        <v>412119.255796083</v>
       </c>
       <c r="G2" t="n">
-        <v>40258.5428771211</v>
+        <v>165123.124530265</v>
       </c>
       <c r="H2" t="n">
-        <v>5534.0200207092</v>
+        <v>27259.2872969821</v>
       </c>
       <c r="I2" t="n">
-        <v>4140.8849145238</v>
+        <v>23326.6160976878</v>
       </c>
       <c r="J2" t="n">
-        <v>8159.8225257483</v>
+        <v>35907.9068644807</v>
       </c>
       <c r="K2" t="n">
-        <v>4842.2145003208</v>
+        <v>25733.0832879512</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6871.3372662206</v>
+        <v>21841.9675828296</v>
       </c>
       <c r="C3" t="n">
-        <v>2400.1299867114</v>
+        <v>8565.3923669123</v>
       </c>
       <c r="D3" t="n">
-        <v>16982.5873749097</v>
+        <v>81082.1660046152</v>
       </c>
       <c r="E3" t="n">
-        <v>15779.9923834323</v>
+        <v>46122.5933920447</v>
       </c>
       <c r="F3" t="n">
-        <v>110863.123046248</v>
+        <v>487940.180525355</v>
       </c>
       <c r="G3" t="n">
-        <v>43854.2791761008</v>
+        <v>195139.132218908</v>
       </c>
       <c r="H3" t="n">
-        <v>5945.4796057972</v>
+        <v>32926.5432799568</v>
       </c>
       <c r="I3" t="n">
-        <v>4705.7771207889</v>
+        <v>27780.6672966731</v>
       </c>
       <c r="J3" t="n">
-        <v>9120.7567978515</v>
+        <v>43734.4968064008</v>
       </c>
       <c r="K3" t="n">
-        <v>5202.7833344356</v>
+        <v>30747.2215770144</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7494.2578054396</v>
+        <v>23763.2427895486</v>
       </c>
       <c r="C4" t="n">
-        <v>2724.7500551669</v>
+        <v>9536.9225268709</v>
       </c>
       <c r="D4" t="n">
-        <v>19818.5884368627</v>
+        <v>93041.55821227129</v>
       </c>
       <c r="E4" t="n">
-        <v>16535.6942831749</v>
+        <v>50581.1983213051</v>
       </c>
       <c r="F4" t="n">
-        <v>121717.424748288</v>
+        <v>538579.953468974</v>
       </c>
       <c r="G4" t="n">
-        <v>47774.860227568</v>
+        <v>208901.431936053</v>
       </c>
       <c r="H4" t="n">
-        <v>6482.1198726762</v>
+        <v>36896.1171977128</v>
       </c>
       <c r="I4" t="n">
-        <v>5334.5389005883</v>
+        <v>30751.8623118595</v>
       </c>
       <c r="J4" t="n">
-        <v>9996.827684924199</v>
+        <v>49835.450246036</v>
       </c>
       <c r="K4" t="n">
-        <v>5555.7874818869</v>
+        <v>35272.1699273166</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7914.7612761796</v>
+        <v>26042.6571599969</v>
       </c>
       <c r="C5" t="n">
-        <v>3126.0569105656</v>
+        <v>10228.2625732899</v>
       </c>
       <c r="D5" t="n">
-        <v>22753.8283168985</v>
+        <v>105847.311084665</v>
       </c>
       <c r="E5" t="n">
-        <v>17380.5715787179</v>
+        <v>54692.430707006</v>
       </c>
       <c r="F5" t="n">
-        <v>137422.034917922</v>
+        <v>592963.229548957</v>
       </c>
       <c r="G5" t="n">
-        <v>55362.166672249</v>
+        <v>222333.153837524</v>
       </c>
       <c r="H5" t="n">
-        <v>7510.7523577043</v>
+        <v>40896.7620383839</v>
       </c>
       <c r="I5" t="n">
-        <v>6157.027435162</v>
+        <v>35340.4198914775</v>
       </c>
       <c r="J5" t="n">
-        <v>11171.1758476971</v>
+        <v>56288.8537325154</v>
       </c>
       <c r="K5" t="n">
-        <v>6045.6945227479</v>
+        <v>41293.3785240981</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9306.4563755496</v>
+        <v>28534.4106824144</v>
       </c>
       <c r="C6" t="n">
-        <v>3664.8275018682</v>
+        <v>11228.7432470784</v>
       </c>
       <c r="D6" t="n">
-        <v>26754.6426449071</v>
+        <v>119618.520469229</v>
       </c>
       <c r="E6" t="n">
-        <v>21410.7346807296</v>
+        <v>57472.235040888</v>
       </c>
       <c r="F6" t="n">
-        <v>161840.160906841</v>
+        <v>643563.104543766</v>
       </c>
       <c r="G6" t="n">
-        <v>65774.8968455155</v>
+        <v>233197.372297119</v>
       </c>
       <c r="H6" t="n">
-        <v>8720.4998750137</v>
+        <v>45401.6931761127</v>
       </c>
       <c r="I6" t="n">
-        <v>7152.1129307921</v>
+        <v>38086.3692420211</v>
       </c>
       <c r="J6" t="n">
-        <v>12455.7973500923</v>
+        <v>63170.365458487</v>
       </c>
       <c r="K6" t="n">
-        <v>6600.1927023727</v>
+        <v>46853.3949304169</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10668.7715777319</v>
+        <v>30519.5058925527</v>
       </c>
       <c r="C7" t="n">
-        <v>4195.716604189</v>
+        <v>12306.1111581181</v>
       </c>
       <c r="D7" t="n">
-        <v>31742.1390654808</v>
+        <v>136856.481829494</v>
       </c>
       <c r="E7" t="n">
-        <v>22416.2348014861</v>
+        <v>59852.6329982801</v>
       </c>
       <c r="F7" t="n">
-        <v>187318.903117653</v>
+        <v>688858.218049283</v>
       </c>
       <c r="G7" t="n">
-        <v>77958.3125967485</v>
+        <v>234968.909896279</v>
       </c>
       <c r="H7" t="n">
-        <v>10400.4579316212</v>
+        <v>47761.3383411058</v>
       </c>
       <c r="I7" t="n">
-        <v>8482.7110823537</v>
+        <v>42573.815095032</v>
       </c>
       <c r="J7" t="n">
-        <v>13968.5291001443</v>
+        <v>67719.5749520125</v>
       </c>
       <c r="K7" t="n">
-        <v>7486.0303578971</v>
+        <v>56299.8478864087</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12186.2505391259</v>
+        <v>33028.6940984902</v>
       </c>
       <c r="C8" t="n">
-        <v>4792.5857113366</v>
+        <v>13607.7992081776</v>
       </c>
       <c r="D8" t="n">
-        <v>36910.7930678218</v>
+        <v>156744.345692098</v>
       </c>
       <c r="E8" t="n">
-        <v>24036.3613458218</v>
+        <v>62451.0286109999</v>
       </c>
       <c r="F8" t="n">
-        <v>219438.474816681</v>
+        <v>746395.059483517</v>
       </c>
       <c r="G8" t="n">
-        <v>92235.7969950329</v>
+        <v>245406.435839961</v>
       </c>
       <c r="H8" t="n">
-        <v>12450.1033236272</v>
+        <v>51498.9309330299</v>
       </c>
       <c r="I8" t="n">
-        <v>10320.8705235502</v>
+        <v>49969.3954242252</v>
       </c>
       <c r="J8" t="n">
-        <v>16533.4291781685</v>
+        <v>73724.45273370029</v>
       </c>
       <c r="K8" t="n">
-        <v>9972.284132196401</v>
+        <v>59963.9769428358</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>14605.0953360351</v>
+        <v>37121.8747578051</v>
       </c>
       <c r="C9" t="n">
-        <v>5548.1136685373</v>
+        <v>15056.0444020413</v>
       </c>
       <c r="D9" t="n">
-        <v>44561.5044921965</v>
+        <v>179086.312961642</v>
       </c>
       <c r="E9" t="n">
-        <v>28483.74504723</v>
+        <v>64660.0402756142</v>
       </c>
       <c r="F9" t="n">
-        <v>270092.323718075</v>
+        <v>832035.948559918</v>
       </c>
       <c r="G9" t="n">
-        <v>111690.826772626</v>
+        <v>275119.253542733</v>
       </c>
       <c r="H9" t="n">
-        <v>15348.0176852166</v>
+        <v>57905.5575135762</v>
       </c>
       <c r="I9" t="n">
-        <v>13713.9730103453</v>
+        <v>57085.9549857745</v>
       </c>
       <c r="J9" t="n">
-        <v>20941.0950795371</v>
+        <v>81156.6064833078</v>
       </c>
       <c r="K9" t="n">
-        <v>15199.9526263518</v>
+        <v>64844.3036374238</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16367.5689049004</v>
+        <v>40337.2474127212</v>
       </c>
       <c r="C10" t="n">
-        <v>6616.0712884655</v>
+        <v>16520.606068113</v>
       </c>
       <c r="D10" t="n">
-        <v>53169.3042668557</v>
+        <v>204145.160792282</v>
       </c>
       <c r="E10" t="n">
-        <v>33428.1240272189</v>
+        <v>67558.7472089371</v>
       </c>
       <c r="F10" t="n">
-        <v>319244.612778466</v>
+        <v>919281.129066646</v>
       </c>
       <c r="G10" t="n">
-        <v>131723.995033524</v>
+        <v>301089.349876263</v>
       </c>
       <c r="H10" t="n">
-        <v>18807.5654899187</v>
+        <v>65493.0370851427</v>
       </c>
       <c r="I10" t="n">
-        <v>14600.2526349971</v>
+        <v>64622.9921496828</v>
       </c>
       <c r="J10" t="n">
-        <v>26186.163193858</v>
+        <v>88903.7321832173</v>
       </c>
       <c r="K10" t="n">
-        <v>18345.5679387287</v>
+        <v>70610.25629028679</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>16522.4085359417</v>
+        <v>42466.2820679592</v>
       </c>
       <c r="C11" t="n">
-        <v>6957.0485280725</v>
+        <v>17903.0937947792</v>
       </c>
       <c r="D11" t="n">
-        <v>60002.5937212898</v>
+        <v>227715.849274698</v>
       </c>
       <c r="E11" t="n">
-        <v>34659.656735114</v>
+        <v>73576.9172811981</v>
       </c>
       <c r="F11" t="n">
-        <v>348517.743734819</v>
+        <v>986515.202291903</v>
       </c>
       <c r="G11" t="n">
-        <v>138092.581004441</v>
+        <v>311858.650174912</v>
       </c>
       <c r="H11" t="n">
-        <v>22681.4668330152</v>
+        <v>70648.0703425121</v>
       </c>
       <c r="I11" t="n">
-        <v>18760.5322347916</v>
+        <v>70444.8261658917</v>
       </c>
       <c r="J11" t="n">
-        <v>29004.6105380238</v>
+        <v>95650.86633281301</v>
       </c>
       <c r="K11" t="n">
-        <v>21836.8456041292</v>
+        <v>76250.6468571406</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>18783.6191374142</v>
+        <v>40582.8797444444</v>
       </c>
       <c r="C12" t="n">
-        <v>7711.9882102303</v>
+        <v>15285.4483897479</v>
       </c>
       <c r="D12" t="n">
-        <v>68654.651348826</v>
+        <v>237825.337712997</v>
       </c>
       <c r="E12" t="n">
-        <v>39618.9790222461</v>
+        <v>81396.5373026375</v>
       </c>
       <c r="F12" t="n">
-        <v>412119.255796083</v>
+        <v>1013567.00223068</v>
       </c>
       <c r="G12" t="n">
-        <v>165123.124530265</v>
+        <v>312902.930723467</v>
       </c>
       <c r="H12" t="n">
-        <v>27259.2872969821</v>
+        <v>72444.69202251481</v>
       </c>
       <c r="I12" t="n">
-        <v>23326.6160976878</v>
+        <v>73425.31181030811</v>
       </c>
       <c r="J12" t="n">
-        <v>35907.9068644807</v>
+        <v>96086.14081364129</v>
       </c>
       <c r="K12" t="n">
-        <v>25733.0832879512</v>
+        <v>83617.72371092391</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>21841.9675828296</v>
+        <v>48423.9</v>
       </c>
       <c r="C13" t="n">
-        <v>8565.3923669123</v>
+        <v>18026.9</v>
       </c>
       <c r="D13" t="n">
-        <v>81082.1660046152</v>
+        <v>264833</v>
       </c>
       <c r="E13" t="n">
-        <v>46122.5933920447</v>
+        <v>86994.8</v>
       </c>
       <c r="F13" t="n">
-        <v>487940.180525355</v>
+        <v>1149237</v>
       </c>
       <c r="G13" t="n">
-        <v>195139.132218908</v>
+        <v>374545.6</v>
       </c>
       <c r="H13" t="n">
-        <v>32926.5432799568</v>
+        <v>78741.2</v>
       </c>
       <c r="I13" t="n">
-        <v>27780.6672966731</v>
+        <v>77215.89999999999</v>
       </c>
       <c r="J13" t="n">
-        <v>43734.4968064008</v>
+        <v>110147</v>
       </c>
       <c r="K13" t="n">
-        <v>30747.2215770144</v>
+        <v>90308.7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2022年</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>23763.2427895486</v>
+        <v>49673.7</v>
       </c>
       <c r="C14" t="n">
-        <v>9536.9225268709</v>
+        <v>17855.3</v>
       </c>
       <c r="D14" t="n">
-        <v>93041.55821227129</v>
+        <v>279918.4</v>
       </c>
       <c r="E14" t="n">
-        <v>50581.1983213051</v>
+        <v>92582.39999999999</v>
       </c>
       <c r="F14" t="n">
-        <v>538579.953468974</v>
+        <v>1210207.2</v>
       </c>
       <c r="G14" t="n">
-        <v>208901.431936053</v>
+        <v>401644.3</v>
       </c>
       <c r="H14" t="n">
-        <v>36896.1171977128</v>
+        <v>83383.10000000001</v>
       </c>
       <c r="I14" t="n">
-        <v>30751.8623118595</v>
+        <v>73821.3</v>
       </c>
       <c r="J14" t="n">
-        <v>49835.450246036</v>
+        <v>114517.7</v>
       </c>
       <c r="K14" t="n">
-        <v>35272.1699273166</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>26042.6571599969</v>
-      </c>
-      <c r="C15" t="n">
-        <v>10228.2625732899</v>
-      </c>
-      <c r="D15" t="n">
-        <v>105847.311084665</v>
-      </c>
-      <c r="E15" t="n">
-        <v>54692.430707006</v>
-      </c>
-      <c r="F15" t="n">
-        <v>592963.229548957</v>
-      </c>
-      <c r="G15" t="n">
-        <v>222333.153837524</v>
-      </c>
-      <c r="H15" t="n">
-        <v>40896.7620383839</v>
-      </c>
-      <c r="I15" t="n">
-        <v>35340.4198914775</v>
-      </c>
-      <c r="J15" t="n">
-        <v>56288.8537325154</v>
-      </c>
-      <c r="K15" t="n">
-        <v>41293.3785240981</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>28534.4106824144</v>
-      </c>
-      <c r="C16" t="n">
-        <v>11228.7432470784</v>
-      </c>
-      <c r="D16" t="n">
-        <v>119618.520469229</v>
-      </c>
-      <c r="E16" t="n">
-        <v>57472.235040888</v>
-      </c>
-      <c r="F16" t="n">
-        <v>643563.104543766</v>
-      </c>
-      <c r="G16" t="n">
-        <v>233197.372297119</v>
-      </c>
-      <c r="H16" t="n">
-        <v>45401.6931761127</v>
-      </c>
-      <c r="I16" t="n">
-        <v>38086.3692420211</v>
-      </c>
-      <c r="J16" t="n">
-        <v>63170.365458487</v>
-      </c>
-      <c r="K16" t="n">
-        <v>46853.3949304169</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>30519.5058925527</v>
-      </c>
-      <c r="C17" t="n">
-        <v>12306.1111581181</v>
-      </c>
-      <c r="D17" t="n">
-        <v>136856.481829494</v>
-      </c>
-      <c r="E17" t="n">
-        <v>59852.6329982801</v>
-      </c>
-      <c r="F17" t="n">
-        <v>688858.218049283</v>
-      </c>
-      <c r="G17" t="n">
-        <v>234968.909896279</v>
-      </c>
-      <c r="H17" t="n">
-        <v>47761.3383411058</v>
-      </c>
-      <c r="I17" t="n">
-        <v>42573.815095032</v>
-      </c>
-      <c r="J17" t="n">
-        <v>67719.5749520125</v>
-      </c>
-      <c r="K17" t="n">
-        <v>56299.8478864087</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>33028.6940984902</v>
-      </c>
-      <c r="C18" t="n">
-        <v>13607.7992081776</v>
-      </c>
-      <c r="D18" t="n">
-        <v>156744.345692098</v>
-      </c>
-      <c r="E18" t="n">
-        <v>62451.0286109999</v>
-      </c>
-      <c r="F18" t="n">
-        <v>746395.059483517</v>
-      </c>
-      <c r="G18" t="n">
-        <v>245406.435839961</v>
-      </c>
-      <c r="H18" t="n">
-        <v>51498.9309330299</v>
-      </c>
-      <c r="I18" t="n">
-        <v>49969.3954242252</v>
-      </c>
-      <c r="J18" t="n">
-        <v>73724.45273370029</v>
-      </c>
-      <c r="K18" t="n">
-        <v>59963.9769428358</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>37121.8747578051</v>
-      </c>
-      <c r="C19" t="n">
-        <v>15056.0444020413</v>
-      </c>
-      <c r="D19" t="n">
-        <v>179086.312961642</v>
-      </c>
-      <c r="E19" t="n">
-        <v>64660.0402756142</v>
-      </c>
-      <c r="F19" t="n">
-        <v>832035.948559918</v>
-      </c>
-      <c r="G19" t="n">
-        <v>275119.253542733</v>
-      </c>
-      <c r="H19" t="n">
-        <v>57905.5575135762</v>
-      </c>
-      <c r="I19" t="n">
-        <v>57085.9549857745</v>
-      </c>
-      <c r="J19" t="n">
-        <v>81156.6064833078</v>
-      </c>
-      <c r="K19" t="n">
-        <v>64844.3036374238</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>40337.2474127212</v>
-      </c>
-      <c r="C20" t="n">
-        <v>16520.606068113</v>
-      </c>
-      <c r="D20" t="n">
-        <v>204145.160792282</v>
-      </c>
-      <c r="E20" t="n">
-        <v>67558.7472089371</v>
-      </c>
-      <c r="F20" t="n">
-        <v>919281.129066646</v>
-      </c>
-      <c r="G20" t="n">
-        <v>301089.349876263</v>
-      </c>
-      <c r="H20" t="n">
-        <v>65493.0370851427</v>
-      </c>
-      <c r="I20" t="n">
-        <v>64622.9921496828</v>
-      </c>
-      <c r="J20" t="n">
-        <v>88903.7321832173</v>
-      </c>
-      <c r="K20" t="n">
-        <v>70610.25629028679</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>42466.2820679592</v>
-      </c>
-      <c r="C21" t="n">
-        <v>17903.0937947792</v>
-      </c>
-      <c r="D21" t="n">
-        <v>227715.849274698</v>
-      </c>
-      <c r="E21" t="n">
-        <v>73576.9172811981</v>
-      </c>
-      <c r="F21" t="n">
-        <v>986515.202291903</v>
-      </c>
-      <c r="G21" t="n">
-        <v>311858.650174912</v>
-      </c>
-      <c r="H21" t="n">
-        <v>70648.0703425121</v>
-      </c>
-      <c r="I21" t="n">
-        <v>70444.8261658917</v>
-      </c>
-      <c r="J21" t="n">
-        <v>95650.86633281301</v>
-      </c>
-      <c r="K21" t="n">
-        <v>76250.6468571406</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>40582.9</v>
-      </c>
-      <c r="C22" t="n">
-        <v>15285.4</v>
-      </c>
-      <c r="D22" t="n">
-        <v>237825.3</v>
-      </c>
-      <c r="E22" t="n">
-        <v>81396.5</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1013567</v>
-      </c>
-      <c r="G22" t="n">
-        <v>312902.9</v>
-      </c>
-      <c r="H22" t="n">
-        <v>72444.7</v>
-      </c>
-      <c r="I22" t="n">
-        <v>73425.3</v>
-      </c>
-      <c r="J22" t="n">
-        <v>96086.10000000001</v>
-      </c>
-      <c r="K22" t="n">
-        <v>83617.7</v>
+        <v>96811</v>
       </c>
     </row>
   </sheetData>
